--- a/labs/clinical-data-dictonary.xlsx
+++ b/labs/clinical-data-dictonary.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrejack/code/hcv-target-sites/labs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataDictionaryforREDI" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1358">
   <si>
     <t>redcap_field_name</t>
   </si>
@@ -4067,6 +4075,33 @@
   </si>
   <si>
     <t>sodium_im_lborresu</t>
+  </si>
+  <si>
+    <t>alp_im_lborres</t>
+  </si>
+  <si>
+    <t>alp_im_lborresu</t>
+  </si>
+  <si>
+    <t>Serum ALP</t>
+  </si>
+  <si>
+    <t>Serum ALP units</t>
+  </si>
+  <si>
+    <t>6768-6</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase [Enzymatic activity/​volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase</t>
+  </si>
+  <si>
+    <t>1783-0</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase [Enzymatic activity/​volume] in Blood</t>
   </si>
 </sst>
 </file>
@@ -4206,6 +4241,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4531,13 +4571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
@@ -4549,7 +4589,7 @@
     <col min="13" max="13" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>1294</v>
       </c>
@@ -4593,7 +4633,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1343</v>
       </c>
@@ -4637,7 +4677,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1341</v>
       </c>
@@ -4681,7 +4721,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1342</v>
       </c>
@@ -4725,7 +4765,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1344</v>
       </c>
@@ -4769,7 +4809,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1345</v>
       </c>
@@ -4813,7 +4853,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1314</v>
       </c>
@@ -4857,7 +4897,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1315</v>
       </c>
@@ -4901,7 +4941,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1335</v>
       </c>
@@ -4945,7 +4985,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1336</v>
       </c>
@@ -4989,7 +5029,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12.75" customHeight="1">
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1308</v>
       </c>
@@ -5033,7 +5073,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1309</v>
       </c>
@@ -5077,7 +5117,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1337</v>
       </c>
@@ -5121,7 +5161,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1338</v>
       </c>
@@ -5165,7 +5205,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1">
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1331</v>
       </c>
@@ -5200,7 +5240,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1332</v>
       </c>
@@ -5244,7 +5284,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1">
+    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1346</v>
       </c>
@@ -5288,7 +5328,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1">
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1310</v>
       </c>
@@ -5332,7 +5372,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1">
+    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1311</v>
       </c>
@@ -5373,7 +5413,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1">
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1316</v>
       </c>
@@ -5417,7 +5457,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1">
+    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1317</v>
       </c>
@@ -5461,9 +5501,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1320</v>
+        <v>1349</v>
       </c>
       <c r="B22" t="s">
         <v>567</v>
@@ -5472,42 +5512,33 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1301</v>
+        <v>1351</v>
       </c>
       <c r="F22" t="s">
         <v>444</v>
       </c>
       <c r="G22" t="s">
-        <v>605</v>
-      </c>
-      <c r="H22" t="s">
-        <v>606</v>
+        <v>1353</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>1355</v>
       </c>
       <c r="I22" t="s">
-        <v>607</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+        <v>1354</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1321</v>
+        <v>1350</v>
       </c>
       <c r="B23" t="s">
         <v>567</v>
@@ -5516,42 +5547,15 @@
         <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="F23" t="s">
         <v>444</v>
       </c>
-      <c r="G23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B24" t="s">
         <v>567</v>
@@ -5560,7 +5564,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
         <v>1301</v>
@@ -5569,13 +5573,13 @@
         <v>444</v>
       </c>
       <c r="G24" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="H24" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="I24" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="J24" t="s">
         <v>1301</v>
@@ -5593,9 +5597,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B25" t="s">
         <v>567</v>
@@ -5604,7 +5608,7 @@
         <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="E25" t="s">
         <v>1301</v>
@@ -5637,9 +5641,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1">
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="B26" t="s">
         <v>567</v>
@@ -5648,7 +5652,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E26" t="s">
         <v>1301</v>
@@ -5657,19 +5661,19 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="H26" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="I26" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="J26" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>1305</v>
+        <v>1301</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1301</v>
       </c>
       <c r="L26" t="s">
         <v>1301</v>
@@ -5681,9 +5685,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1">
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -5692,7 +5696,7 @@
         <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E27" t="s">
         <v>1301</v>
@@ -5725,9 +5729,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1">
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="B28" t="s">
         <v>567</v>
@@ -5736,7 +5740,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E28" t="s">
         <v>1301</v>
@@ -5745,19 +5749,19 @@
         <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="H28" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="I28" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="J28" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1301</v>
+        <v>1304</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>1305</v>
       </c>
       <c r="L28" t="s">
         <v>1301</v>
@@ -5769,9 +5773,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="B29" t="s">
         <v>567</v>
@@ -5780,7 +5784,7 @@
         <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E29" t="s">
         <v>1301</v>
@@ -5813,9 +5817,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1">
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B30" t="s">
         <v>567</v>
@@ -5824,7 +5828,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="E30" t="s">
         <v>1301</v>
@@ -5833,22 +5837,22 @@
         <v>444</v>
       </c>
       <c r="G30" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="H30" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="I30" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="J30" t="s">
-        <v>661</v>
+        <v>1301</v>
       </c>
       <c r="K30" t="s">
-        <v>656</v>
+        <v>1301</v>
       </c>
       <c r="L30" t="s">
-        <v>662</v>
+        <v>1301</v>
       </c>
       <c r="M30" t="s">
         <v>1301</v>
@@ -5857,9 +5861,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1">
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B31" t="s">
         <v>567</v>
@@ -5868,7 +5872,7 @@
         <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="E31" t="s">
         <v>1301</v>
@@ -5901,9 +5905,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="B32" t="s">
         <v>567</v>
@@ -5912,7 +5916,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="E32" t="s">
         <v>1301</v>
@@ -5921,22 +5925,22 @@
         <v>444</v>
       </c>
       <c r="G32" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="H32" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="I32" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="J32" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="K32" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="L32" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="M32" t="s">
         <v>1301</v>
@@ -5945,9 +5949,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1">
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="B33" t="s">
         <v>567</v>
@@ -5956,7 +5960,7 @@
         <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="E33" t="s">
         <v>1301</v>
@@ -5989,9 +5993,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1">
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="B34" t="s">
         <v>567</v>
@@ -6000,7 +6004,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="E34" t="s">
         <v>1301</v>
@@ -6009,22 +6013,22 @@
         <v>444</v>
       </c>
       <c r="G34" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="H34" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="I34" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="J34" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="K34" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="L34" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="M34" t="s">
         <v>1301</v>
@@ -6033,9 +6037,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1">
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="B35" t="s">
         <v>567</v>
@@ -6044,7 +6048,7 @@
         <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="E35" t="s">
         <v>1301</v>
@@ -6077,42 +6081,42 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1">
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
       <c r="B36" t="s">
-        <v>699</v>
+        <v>567</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>446</v>
+        <v>686</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>1301</v>
       </c>
       <c r="F36" t="s">
         <v>444</v>
       </c>
       <c r="G36" t="s">
-        <v>1301</v>
+        <v>689</v>
       </c>
       <c r="H36" t="s">
-        <v>1301</v>
+        <v>686</v>
       </c>
       <c r="I36" t="s">
-        <v>1301</v>
+        <v>690</v>
       </c>
       <c r="J36" t="s">
-        <v>1301</v>
+        <v>691</v>
       </c>
       <c r="K36" t="s">
-        <v>1301</v>
+        <v>686</v>
       </c>
       <c r="L36" t="s">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="M36" t="s">
         <v>1301</v>
@@ -6121,18 +6125,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1">
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="B37" t="s">
-        <v>699</v>
+        <v>567</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E37" t="s">
         <v>1301</v>
@@ -6141,22 +6145,22 @@
         <v>444</v>
       </c>
       <c r="G37" t="s">
-        <v>708</v>
+        <v>1301</v>
       </c>
       <c r="H37" t="s">
-        <v>709</v>
+        <v>1301</v>
       </c>
       <c r="I37" t="s">
-        <v>710</v>
+        <v>1301</v>
       </c>
       <c r="J37" t="s">
-        <v>711</v>
+        <v>1301</v>
       </c>
       <c r="K37" t="s">
-        <v>709</v>
+        <v>1301</v>
       </c>
       <c r="L37" t="s">
-        <v>712</v>
+        <v>1301</v>
       </c>
       <c r="M37" t="s">
         <v>1301</v>
@@ -6165,18 +6169,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="12.75" customHeight="1">
+    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="B38" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>722</v>
+        <v>446</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
@@ -6209,18 +6213,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1">
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B39" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="E39" t="s">
         <v>1301</v>
@@ -6229,17 +6233,22 @@
         <v>444</v>
       </c>
       <c r="G39" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="H39" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="I39" t="s">
-        <v>727</v>
-      </c>
-      <c r="K39" s="6"/>
+        <v>710</v>
+      </c>
+      <c r="J39" t="s">
+        <v>711</v>
+      </c>
+      <c r="K39" t="s">
+        <v>709</v>
+      </c>
       <c r="L39" t="s">
-        <v>1301</v>
+        <v>712</v>
       </c>
       <c r="M39" t="s">
         <v>1301</v>
@@ -6248,9 +6257,9 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1">
+    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="B40" t="s">
         <v>717</v>
@@ -6259,28 +6268,28 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E40" t="s">
-        <v>1301</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
         <v>444</v>
       </c>
       <c r="G40" t="s">
-        <v>731</v>
+        <v>1301</v>
       </c>
       <c r="H40" t="s">
-        <v>726</v>
+        <v>1301</v>
       </c>
       <c r="I40" t="s">
-        <v>732</v>
+        <v>1301</v>
       </c>
       <c r="J40" t="s">
-        <v>1306</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>1307</v>
+        <v>1301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1301</v>
       </c>
       <c r="L40" t="s">
         <v>1301</v>
@@ -6292,18 +6301,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1">
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B41" t="s">
         <v>717</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E41" t="s">
         <v>1301</v>
@@ -6312,20 +6321,15 @@
         <v>444</v>
       </c>
       <c r="G41" t="s">
-        <v>1301</v>
+        <v>725</v>
       </c>
       <c r="H41" t="s">
-        <v>1301</v>
+        <v>726</v>
       </c>
       <c r="I41" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1301</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="K41" s="6"/>
       <c r="L41" t="s">
         <v>1301</v>
       </c>
@@ -6336,18 +6340,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1">
+    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B42" t="s">
         <v>717</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E42" t="s">
         <v>1301</v>
@@ -6356,32 +6360,115 @@
         <v>444</v>
       </c>
       <c r="G42" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="H42" t="s">
         <v>726</v>
       </c>
       <c r="I42" t="s">
+        <v>732</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B43" t="s">
+        <v>717</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F43" t="s">
+        <v>444</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B44" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>736</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F44" t="s">
+        <v>444</v>
+      </c>
+      <c r="G44" t="s">
+        <v>725</v>
+      </c>
+      <c r="H44" t="s">
+        <v>726</v>
+      </c>
+      <c r="I44" t="s">
         <v>727</v>
       </c>
-      <c r="L42" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="L44" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N44" t="s">
         <v>1301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6393,10 +6480,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD1092"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -6428,7 +6515,7 @@
     <col min="29" max="29" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="12.75" customHeight="1">
+    <row r="1" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6527,7 +6614,7 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
     </row>
-    <row r="2" spans="1:39" ht="12.75" customHeight="1">
+    <row r="2" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6555,7 +6642,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:39" ht="12.75" customHeight="1">
+    <row r="3" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6586,7 +6673,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:39" ht="12.75" customHeight="1">
+    <row r="4" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6617,7 +6704,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="12.75" customHeight="1">
+    <row r="5" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6651,7 +6738,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:39" ht="12.75" customHeight="1">
+    <row r="6" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6688,7 +6775,7 @@
         <v>184100006</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="12.75" customHeight="1">
+    <row r="7" spans="1:39" ht="91" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6725,7 +6812,7 @@
         <v>103579009</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="12.75" customHeight="1">
+    <row r="8" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -6762,7 +6849,7 @@
         <v>364699009</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="12.75" customHeight="1">
+    <row r="9" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -6793,7 +6880,7 @@
         <v>184099003</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="12.75" customHeight="1">
+    <row r="10" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6833,7 +6920,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="12.75" customHeight="1">
+    <row r="11" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -6867,7 +6954,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:39" ht="12.75" customHeight="1">
+    <row r="12" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -6904,7 +6991,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:39" ht="12.75" customHeight="1">
+    <row r="13" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -6947,7 +7034,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:39" ht="12.75" customHeight="1">
+    <row r="14" spans="1:39" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -6981,7 +7068,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:39" ht="12.75" customHeight="1">
+    <row r="15" spans="1:39" ht="65" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -7018,7 +7105,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:39" ht="12.75" customHeight="1">
+    <row r="16" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -7049,7 +7136,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75" customHeight="1">
+    <row r="17" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -7077,7 +7164,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75" customHeight="1">
+    <row r="18" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -7105,7 +7192,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75" customHeight="1">
+    <row r="19" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -7133,7 +7220,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" customHeight="1">
+    <row r="20" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -7170,7 +7257,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75" customHeight="1">
+    <row r="21" spans="1:27" ht="78" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7204,7 +7291,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75" customHeight="1">
+    <row r="22" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -7235,7 +7322,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75" customHeight="1">
+    <row r="23" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7266,7 +7353,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75" customHeight="1">
+    <row r="24" spans="1:27" ht="78" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7300,7 +7387,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75" customHeight="1">
+    <row r="25" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -7331,7 +7418,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75" customHeight="1">
+    <row r="26" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -7359,7 +7446,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -7390,7 +7477,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" customHeight="1">
+    <row r="28" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -7418,7 +7505,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75" customHeight="1">
+    <row r="29" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -7449,7 +7536,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75" customHeight="1">
+    <row r="30" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -7477,7 +7564,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75" customHeight="1">
+    <row r="31" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -7508,7 +7595,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75" customHeight="1">
+    <row r="32" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -7536,7 +7623,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="12.75" customHeight="1">
+    <row r="33" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -7567,7 +7654,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75" customHeight="1">
+    <row r="34" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -7595,7 +7682,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="12.75" customHeight="1">
+    <row r="35" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -7626,7 +7713,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="12.75" customHeight="1">
+    <row r="36" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -7654,7 +7741,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="12.75" customHeight="1">
+    <row r="37" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -7685,7 +7772,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="12.75" customHeight="1">
+    <row r="38" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -7725,7 +7812,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="12.75" customHeight="1">
+    <row r="39" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -7759,7 +7846,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="12.75" customHeight="1">
+    <row r="40" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -7787,7 +7874,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="12.75" customHeight="1">
+    <row r="41" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -7818,7 +7905,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="12.75" customHeight="1">
+    <row r="42" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -7858,7 +7945,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="12.75" customHeight="1">
+    <row r="43" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -7892,7 +7979,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="12.75" customHeight="1">
+    <row r="44" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -7920,7 +8007,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="12.75" customHeight="1">
+    <row r="45" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -7951,7 +8038,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="12.75" customHeight="1">
+    <row r="46" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -7991,7 +8078,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="12.75" customHeight="1">
+    <row r="47" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -8025,7 +8112,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75" customHeight="1">
+    <row r="48" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -8053,7 +8140,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1">
+    <row r="49" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -8084,7 +8171,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1">
+    <row r="50" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -8124,7 +8211,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1">
+    <row r="51" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -8158,7 +8245,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" customHeight="1">
+    <row r="52" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -8186,7 +8273,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="12.75" customHeight="1">
+    <row r="53" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -8217,7 +8304,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" ht="12.75" customHeight="1">
+    <row r="54" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -8245,7 +8332,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="12.75" customHeight="1">
+    <row r="55" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -8276,7 +8363,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="12.75" customHeight="1">
+    <row r="56" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -8304,7 +8391,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="12.75" customHeight="1">
+    <row r="57" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -8335,7 +8422,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" ht="12.75" customHeight="1">
+    <row r="58" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -8363,7 +8450,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" ht="12.75" customHeight="1">
+    <row r="59" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -8394,7 +8481,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1">
+    <row r="60" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -8425,7 +8512,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" ht="12.75" customHeight="1">
+    <row r="61" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>192</v>
       </c>
@@ -8462,7 +8549,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1">
+    <row r="62" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -8490,7 +8577,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" ht="12.75" customHeight="1">
+    <row r="63" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -8521,7 +8608,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" ht="12.75" customHeight="1">
+    <row r="64" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -8549,7 +8636,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" ht="12.75" customHeight="1">
+    <row r="65" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -8580,7 +8667,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="12.75" customHeight="1">
+    <row r="66" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -8611,7 +8698,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" ht="12.75" customHeight="1">
+    <row r="67" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -8648,7 +8735,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" ht="12.75" customHeight="1">
+    <row r="68" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -8676,7 +8763,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" ht="12.75" customHeight="1">
+    <row r="69" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -8707,7 +8794,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" ht="12.75" customHeight="1">
+    <row r="70" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -8735,7 +8822,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" ht="12.75" customHeight="1">
+    <row r="71" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>217</v>
       </c>
@@ -8766,7 +8853,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" ht="12.75" customHeight="1">
+    <row r="72" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>219</v>
       </c>
@@ -8794,7 +8881,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" ht="12.75" customHeight="1">
+    <row r="73" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -8825,7 +8912,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" ht="12.75" customHeight="1">
+    <row r="74" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -8853,7 +8940,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" ht="12.75" customHeight="1">
+    <row r="75" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -8884,7 +8971,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" ht="12.75" customHeight="1">
+    <row r="76" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -8912,7 +8999,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" ht="12.75" customHeight="1">
+    <row r="77" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -8943,7 +9030,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" ht="12.75" customHeight="1">
+    <row r="78" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -8971,7 +9058,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" ht="12.75" customHeight="1">
+    <row r="79" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -9002,7 +9089,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" ht="12.75" customHeight="1">
+    <row r="80" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -9030,7 +9117,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" ht="12.75" customHeight="1">
+    <row r="81" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>236</v>
       </c>
@@ -9061,7 +9148,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75" customHeight="1">
+    <row r="82" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>238</v>
       </c>
@@ -9089,7 +9176,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75" customHeight="1">
+    <row r="83" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -9120,7 +9207,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75" customHeight="1">
+    <row r="84" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -9151,7 +9238,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75" customHeight="1">
+    <row r="85" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -9185,7 +9272,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" ht="12.75" customHeight="1">
+    <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>248</v>
       </c>
@@ -9213,7 +9300,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" ht="12.75" customHeight="1">
+    <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -9244,7 +9331,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" ht="12.75" customHeight="1">
+    <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -9275,7 +9362,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" ht="12.75" customHeight="1">
+    <row r="89" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -9303,7 +9390,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" ht="12.75" customHeight="1">
+    <row r="90" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>258</v>
       </c>
@@ -9337,7 +9424,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" ht="12.75" customHeight="1">
+    <row r="91" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>262</v>
       </c>
@@ -9371,7 +9458,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" ht="12.75" customHeight="1">
+    <row r="92" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -9399,7 +9486,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" ht="12.75" customHeight="1">
+    <row r="93" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -9433,7 +9520,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="12.75" customHeight="1">
+    <row r="94" spans="1:27" ht="409" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>271</v>
       </c>
@@ -9464,7 +9551,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" ht="12.75" customHeight="1">
+    <row r="95" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -9495,7 +9582,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" ht="12.75" customHeight="1">
+    <row r="96" spans="1:27" ht="78" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>276</v>
       </c>
@@ -9529,7 +9616,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" ht="12.75" customHeight="1">
+    <row r="97" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>280</v>
       </c>
@@ -9557,7 +9644,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" ht="12.75" customHeight="1">
+    <row r="98" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -9588,7 +9675,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" ht="12.75" customHeight="1">
+    <row r="99" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>284</v>
       </c>
@@ -9616,7 +9703,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" ht="12.75" customHeight="1">
+    <row r="100" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>286</v>
       </c>
@@ -9647,7 +9734,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="12.75" customHeight="1">
+    <row r="101" spans="1:27" ht="409" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>287</v>
       </c>
@@ -9681,7 +9768,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="12.75" customHeight="1">
+    <row r="102" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>292</v>
       </c>
@@ -9712,7 +9799,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="12.75" customHeight="1">
+    <row r="103" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -9740,7 +9827,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="12.75" customHeight="1">
+    <row r="104" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -9768,7 +9855,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="12.75" customHeight="1">
+    <row r="105" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>300</v>
       </c>
@@ -9799,7 +9886,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="12.75" customHeight="1">
+    <row r="106" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>302</v>
       </c>
@@ -9833,7 +9920,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="12.75" customHeight="1">
+    <row r="107" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>305</v>
       </c>
@@ -9861,7 +9948,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="12.75" customHeight="1">
+    <row r="108" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>307</v>
       </c>
@@ -9889,7 +9976,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="12.75" customHeight="1">
+    <row r="109" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -9920,7 +10007,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="12.75" customHeight="1">
+    <row r="110" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -9957,7 +10044,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="12.75" customHeight="1">
+    <row r="111" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -9991,7 +10078,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="12.75" customHeight="1">
+    <row r="112" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -10025,7 +10112,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="12.75" customHeight="1">
+    <row r="113" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>321</v>
       </c>
@@ -10059,7 +10146,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="12.75" customHeight="1">
+    <row r="114" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -10087,7 +10174,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="12.75" customHeight="1">
+    <row r="115" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>326</v>
       </c>
@@ -10115,7 +10202,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="12.75" customHeight="1">
+    <row r="116" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>328</v>
       </c>
@@ -10146,7 +10233,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="12.75" customHeight="1">
+    <row r="117" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>330</v>
       </c>
@@ -10180,7 +10267,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" ht="12.75" customHeight="1">
+    <row r="118" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>332</v>
       </c>
@@ -10208,7 +10295,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="12.75" customHeight="1">
+    <row r="119" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>336</v>
       </c>
@@ -10236,7 +10323,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" ht="12.75" customHeight="1">
+    <row r="120" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>339</v>
       </c>
@@ -10264,7 +10351,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" ht="12.75" customHeight="1">
+    <row r="121" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>341</v>
       </c>
@@ -10292,7 +10379,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" ht="12.75" customHeight="1">
+    <row r="122" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>343</v>
       </c>
@@ -10320,7 +10407,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" ht="12.75" customHeight="1">
+    <row r="123" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>344</v>
       </c>
@@ -10351,7 +10438,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="12.75" customHeight="1">
+    <row r="124" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>346</v>
       </c>
@@ -10388,7 +10475,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" ht="12.75" customHeight="1">
+    <row r="125" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>349</v>
       </c>
@@ -10422,7 +10509,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" ht="12.75" customHeight="1">
+    <row r="126" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>352</v>
       </c>
@@ -10456,7 +10543,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" ht="12.75" customHeight="1">
+    <row r="127" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>356</v>
       </c>
@@ -10493,7 +10580,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="12.75" customHeight="1">
+    <row r="128" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>360</v>
       </c>
@@ -10521,7 +10608,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" ht="12.75" customHeight="1">
+    <row r="129" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>362</v>
       </c>
@@ -10549,7 +10636,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" ht="12.75" customHeight="1">
+    <row r="130" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>364</v>
       </c>
@@ -10577,7 +10664,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" ht="12.75" customHeight="1">
+    <row r="131" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>365</v>
       </c>
@@ -10608,7 +10695,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" ht="12.75" customHeight="1">
+    <row r="132" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>367</v>
       </c>
@@ -10642,7 +10729,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" ht="12.75" customHeight="1">
+    <row r="133" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>370</v>
       </c>
@@ -10670,7 +10757,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" ht="12.75" customHeight="1">
+    <row r="134" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>372</v>
       </c>
@@ -10698,7 +10785,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" ht="12.75" customHeight="1">
+    <row r="135" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>373</v>
       </c>
@@ -10729,7 +10816,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" ht="12.75" customHeight="1">
+    <row r="136" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>375</v>
       </c>
@@ -10763,7 +10850,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" ht="12.75" customHeight="1">
+    <row r="137" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>378</v>
       </c>
@@ -10791,7 +10878,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" ht="12.75" customHeight="1">
+    <row r="138" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>380</v>
       </c>
@@ -10819,7 +10906,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" ht="12.75" customHeight="1">
+    <row r="139" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>381</v>
       </c>
@@ -10850,7 +10937,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" ht="12.75" customHeight="1">
+    <row r="140" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>383</v>
       </c>
@@ -10878,7 +10965,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="12.75" customHeight="1">
+    <row r="141" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>385</v>
       </c>
@@ -10909,7 +10996,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" ht="12.75" customHeight="1">
+    <row r="142" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>388</v>
       </c>
@@ -10943,7 +11030,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" ht="12.75" customHeight="1">
+    <row r="143" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>391</v>
       </c>
@@ -10977,7 +11064,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="12.75" customHeight="1">
+    <row r="144" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>394</v>
       </c>
@@ -11008,7 +11095,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" ht="12.75" customHeight="1">
+    <row r="145" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>398</v>
       </c>
@@ -11036,7 +11123,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" ht="12.75" customHeight="1">
+    <row r="146" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>401</v>
       </c>
@@ -11076,7 +11163,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" ht="12.75" customHeight="1">
+    <row r="147" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>403</v>
       </c>
@@ -11104,7 +11191,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" ht="12.75" customHeight="1">
+    <row r="148" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>405</v>
       </c>
@@ -11132,7 +11219,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" ht="12.75" customHeight="1">
+    <row r="149" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>407</v>
       </c>
@@ -11160,7 +11247,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" ht="12.75" customHeight="1">
+    <row r="150" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>408</v>
       </c>
@@ -11191,7 +11278,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" ht="12.75" customHeight="1">
+    <row r="151" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>410</v>
       </c>
@@ -11225,7 +11312,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" ht="12.75" customHeight="1">
+    <row r="152" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>413</v>
       </c>
@@ -11259,7 +11346,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" ht="12.75" customHeight="1">
+    <row r="153" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>416</v>
       </c>
@@ -11302,7 +11389,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" ht="12.75" customHeight="1">
+    <row r="154" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>420</v>
       </c>
@@ -11330,7 +11417,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" ht="12.75" customHeight="1">
+    <row r="155" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>422</v>
       </c>
@@ -11358,7 +11445,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" ht="12.75" customHeight="1">
+    <row r="156" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>424</v>
       </c>
@@ -11386,7 +11473,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" ht="12.75" customHeight="1">
+    <row r="157" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>426</v>
       </c>
@@ -11414,7 +11501,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" ht="12.75" customHeight="1">
+    <row r="158" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>427</v>
       </c>
@@ -11448,7 +11535,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" ht="12.75" customHeight="1">
+    <row r="159" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>429</v>
       </c>
@@ -11482,7 +11569,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" ht="12.75" customHeight="1">
+    <row r="160" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>432</v>
       </c>
@@ -11516,7 +11603,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" ht="12.75" customHeight="1">
+    <row r="161" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>435</v>
       </c>
@@ -11559,7 +11646,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" ht="12.75" customHeight="1">
+    <row r="162" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>439</v>
       </c>
@@ -11587,7 +11674,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" ht="12.75" customHeight="1">
+    <row r="163" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>441</v>
       </c>
@@ -11620,7 +11707,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" ht="12.75" customHeight="1">
+    <row r="164" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>445</v>
       </c>
@@ -11658,7 +11745,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" ht="12.75" customHeight="1">
+    <row r="165" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>447</v>
       </c>
@@ -11686,7 +11773,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" ht="12.75" customHeight="1">
+    <row r="166" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>449</v>
       </c>
@@ -11714,7 +11801,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" ht="12.75" customHeight="1">
+    <row r="167" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>451</v>
       </c>
@@ -11761,7 +11848,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" ht="12.75" customHeight="1">
+    <row r="168" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>457</v>
       </c>
@@ -11802,7 +11889,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" ht="12.75" customHeight="1">
+    <row r="169" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>460</v>
       </c>
@@ -11838,7 +11925,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" ht="12.75" customHeight="1">
+    <row r="170" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>463</v>
       </c>
@@ -11866,7 +11953,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" ht="12.75" customHeight="1">
+    <row r="171" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>465</v>
       </c>
@@ -11894,7 +11981,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" ht="12.75" customHeight="1">
+    <row r="172" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>467</v>
       </c>
@@ -11941,7 +12028,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" ht="12.75" customHeight="1">
+    <row r="173" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>475</v>
       </c>
@@ -11982,7 +12069,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" ht="12.75" customHeight="1">
+    <row r="174" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>477</v>
       </c>
@@ -12018,7 +12105,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" ht="12.75" customHeight="1">
+    <row r="175" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>480</v>
       </c>
@@ -12046,7 +12133,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" ht="12.75" customHeight="1">
+    <row r="176" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>482</v>
       </c>
@@ -12074,7 +12161,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" ht="12.75" customHeight="1">
+    <row r="177" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>484</v>
       </c>
@@ -12121,7 +12208,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" ht="12.75" customHeight="1">
+    <row r="178" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>492</v>
       </c>
@@ -12162,7 +12249,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" ht="12.75" customHeight="1">
+    <row r="179" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>494</v>
       </c>
@@ -12198,7 +12285,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" ht="12.75" customHeight="1">
+    <row r="180" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>497</v>
       </c>
@@ -12226,7 +12313,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" ht="12.75" customHeight="1">
+    <row r="181" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>499</v>
       </c>
@@ -12254,7 +12341,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" ht="12.75" customHeight="1">
+    <row r="182" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>501</v>
       </c>
@@ -12301,7 +12388,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" ht="12.75" customHeight="1">
+    <row r="183" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>509</v>
       </c>
@@ -12342,7 +12429,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" ht="12.75" customHeight="1">
+    <row r="184" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -12378,7 +12465,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" ht="12.75" customHeight="1">
+    <row r="185" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>514</v>
       </c>
@@ -12406,7 +12493,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" ht="12.75" customHeight="1">
+    <row r="186" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>516</v>
       </c>
@@ -12434,7 +12521,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" ht="12.75" customHeight="1">
+    <row r="187" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>518</v>
       </c>
@@ -12481,7 +12568,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" ht="12.75" customHeight="1">
+    <row r="188" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>525</v>
       </c>
@@ -12522,7 +12609,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" ht="12.75" customHeight="1">
+    <row r="189" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>527</v>
       </c>
@@ -12558,7 +12645,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" ht="12.75" customHeight="1">
+    <row r="190" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>530</v>
       </c>
@@ -12586,7 +12673,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" ht="12.75" customHeight="1">
+    <row r="191" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>532</v>
       </c>
@@ -12614,7 +12701,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" ht="12.75" customHeight="1">
+    <row r="192" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>534</v>
       </c>
@@ -12661,7 +12748,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" ht="12.75" customHeight="1">
+    <row r="193" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>541</v>
       </c>
@@ -12702,7 +12789,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" ht="12.75" customHeight="1">
+    <row r="194" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>543</v>
       </c>
@@ -12738,7 +12825,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" ht="12.75" customHeight="1">
+    <row r="195" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>546</v>
       </c>
@@ -12766,7 +12853,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" ht="12.75" customHeight="1">
+    <row r="196" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>548</v>
       </c>
@@ -12794,7 +12881,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" ht="12.75" customHeight="1">
+    <row r="197" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>550</v>
       </c>
@@ -12847,7 +12934,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="12.75" customHeight="1">
+    <row r="198" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>561</v>
       </c>
@@ -12888,7 +12975,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" ht="12.75" customHeight="1">
+    <row r="199" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>563</v>
       </c>
@@ -12924,7 +13011,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" ht="12.75" customHeight="1">
+    <row r="200" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>566</v>
       </c>
@@ -12957,7 +13044,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" ht="12.75" customHeight="1">
+    <row r="201" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>568</v>
       </c>
@@ -12995,7 +13082,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" ht="12.75" customHeight="1">
+    <row r="202" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>569</v>
       </c>
@@ -13023,7 +13110,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" ht="12.75" customHeight="1">
+    <row r="203" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>571</v>
       </c>
@@ -13051,7 +13138,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" ht="12.75" customHeight="1">
+    <row r="204" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>573</v>
       </c>
@@ -13092,7 +13179,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" ht="12.75" customHeight="1">
+    <row r="205" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>579</v>
       </c>
@@ -13133,7 +13220,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" ht="12.75" customHeight="1">
+    <row r="206" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>581</v>
       </c>
@@ -13169,7 +13256,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" ht="12.75" customHeight="1">
+    <row r="207" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>584</v>
       </c>
@@ -13197,7 +13284,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" ht="12.75" customHeight="1">
+    <row r="208" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>586</v>
       </c>
@@ -13225,7 +13312,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" ht="12.75" customHeight="1">
+    <row r="209" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>588</v>
       </c>
@@ -13266,7 +13353,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" ht="12.75" customHeight="1">
+    <row r="210" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>594</v>
       </c>
@@ -13307,7 +13394,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" ht="12.75" customHeight="1">
+    <row r="211" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>596</v>
       </c>
@@ -13343,7 +13430,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" ht="12.75" customHeight="1">
+    <row r="212" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>599</v>
       </c>
@@ -13371,7 +13458,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" ht="12.75" customHeight="1">
+    <row r="213" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>601</v>
       </c>
@@ -13399,7 +13486,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" ht="12.75" customHeight="1">
+    <row r="214" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>603</v>
       </c>
@@ -13440,7 +13527,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" ht="12.75" customHeight="1">
+    <row r="215" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>608</v>
       </c>
@@ -13481,7 +13568,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" ht="12.75" customHeight="1">
+    <row r="216" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>610</v>
       </c>
@@ -13517,7 +13604,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" ht="12.75" customHeight="1">
+    <row r="217" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>613</v>
       </c>
@@ -13545,7 +13632,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" ht="12.75" customHeight="1">
+    <row r="218" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>615</v>
       </c>
@@ -13573,7 +13660,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" ht="12.75" customHeight="1">
+    <row r="219" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>617</v>
       </c>
@@ -13614,7 +13701,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" ht="12.75" customHeight="1">
+    <row r="220" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>622</v>
       </c>
@@ -13655,7 +13742,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" ht="12.75" customHeight="1">
+    <row r="221" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>624</v>
       </c>
@@ -13691,7 +13778,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" ht="12.75" customHeight="1">
+    <row r="222" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>627</v>
       </c>
@@ -13719,7 +13806,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" ht="12.75" customHeight="1">
+    <row r="223" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>629</v>
       </c>
@@ -13747,7 +13834,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" ht="12.75" customHeight="1">
+    <row r="224" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>631</v>
       </c>
@@ -13788,7 +13875,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" ht="12.75" customHeight="1">
+    <row r="225" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>635</v>
       </c>
@@ -13829,7 +13916,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" ht="12.75" customHeight="1">
+    <row r="226" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>637</v>
       </c>
@@ -13865,7 +13952,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" ht="12.75" customHeight="1">
+    <row r="227" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>640</v>
       </c>
@@ -13893,7 +13980,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" ht="12.75" customHeight="1">
+    <row r="228" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>642</v>
       </c>
@@ -13921,7 +14008,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" ht="12.75" customHeight="1">
+    <row r="229" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>644</v>
       </c>
@@ -13962,7 +14049,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" ht="12.75" customHeight="1">
+    <row r="230" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>648</v>
       </c>
@@ -14003,7 +14090,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" ht="12.75" customHeight="1">
+    <row r="231" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>650</v>
       </c>
@@ -14039,7 +14126,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" ht="12.75" customHeight="1">
+    <row r="232" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>653</v>
       </c>
@@ -14067,7 +14154,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" ht="12.75" customHeight="1">
+    <row r="233" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>655</v>
       </c>
@@ -14095,7 +14182,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" ht="12.75" customHeight="1">
+    <row r="234" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>657</v>
       </c>
@@ -14142,7 +14229,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" ht="12.75" customHeight="1">
+    <row r="235" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>663</v>
       </c>
@@ -14183,7 +14270,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" ht="12.75" customHeight="1">
+    <row r="236" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>665</v>
       </c>
@@ -14219,7 +14306,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" ht="12.75" customHeight="1">
+    <row r="237" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>668</v>
       </c>
@@ -14247,7 +14334,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" ht="12.75" customHeight="1">
+    <row r="238" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>670</v>
       </c>
@@ -14275,7 +14362,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" ht="12.75" customHeight="1">
+    <row r="239" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>672</v>
       </c>
@@ -14322,7 +14409,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" ht="12.75" customHeight="1">
+    <row r="240" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>678</v>
       </c>
@@ -14363,7 +14450,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" ht="12.75" customHeight="1">
+    <row r="241" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>680</v>
       </c>
@@ -14399,7 +14486,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" ht="12.75" customHeight="1">
+    <row r="242" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>683</v>
       </c>
@@ -14427,7 +14514,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" ht="12.75" customHeight="1">
+    <row r="243" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>685</v>
       </c>
@@ -14455,7 +14542,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" ht="12.75" customHeight="1">
+    <row r="244" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>687</v>
       </c>
@@ -14502,7 +14589,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" ht="12.75" customHeight="1">
+    <row r="245" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>693</v>
       </c>
@@ -14543,7 +14630,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" ht="12.75" customHeight="1">
+    <row r="246" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>695</v>
       </c>
@@ -14579,7 +14666,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" ht="12.75" customHeight="1">
+    <row r="247" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>698</v>
       </c>
@@ -14612,7 +14699,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" ht="12.75" customHeight="1">
+    <row r="248" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>700</v>
       </c>
@@ -14650,7 +14737,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" ht="12.75" customHeight="1">
+    <row r="249" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>701</v>
       </c>
@@ -14680,7 +14767,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" ht="12.75" customHeight="1">
+    <row r="250" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>703</v>
       </c>
@@ -14710,7 +14797,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" ht="12.75" customHeight="1">
+    <row r="251" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>705</v>
       </c>
@@ -14757,7 +14844,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" ht="12.75" customHeight="1">
+    <row r="252" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>713</v>
       </c>
@@ -14793,7 +14880,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" ht="12.75" customHeight="1">
+    <row r="253" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>716</v>
       </c>
@@ -14823,7 +14910,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" ht="12.75" customHeight="1">
+    <row r="254" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>719</v>
       </c>
@@ -14853,7 +14940,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" ht="12.75" customHeight="1">
+    <row r="255" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>721</v>
       </c>
@@ -14888,7 +14975,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" ht="12.75" customHeight="1">
+    <row r="256" spans="1:27" ht="78" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>723</v>
       </c>
@@ -14926,7 +15013,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" ht="12.75" customHeight="1">
+    <row r="257" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>728</v>
       </c>
@@ -14964,7 +15051,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" ht="12.75" customHeight="1">
+    <row r="258" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>733</v>
       </c>
@@ -15002,7 +15089,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="12.75" customHeight="1">
+    <row r="259" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>735</v>
       </c>
@@ -15043,7 +15130,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" ht="12.75" customHeight="1">
+    <row r="260" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>739</v>
       </c>
@@ -15071,7 +15158,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" ht="12.75" customHeight="1">
+    <row r="261" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>742</v>
       </c>
@@ -15108,7 +15195,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" ht="12.75" customHeight="1">
+    <row r="262" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>745</v>
       </c>
@@ -15145,7 +15232,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" ht="12.75" customHeight="1">
+    <row r="263" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>748</v>
       </c>
@@ -15182,7 +15269,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" ht="12.75" customHeight="1">
+    <row r="264" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>751</v>
       </c>
@@ -15219,7 +15306,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" ht="12.75" customHeight="1">
+    <row r="265" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>755</v>
       </c>
@@ -15250,7 +15337,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" ht="12.75" customHeight="1">
+    <row r="266" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>758</v>
       </c>
@@ -15284,7 +15371,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" ht="12.75" customHeight="1">
+    <row r="267" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>761</v>
       </c>
@@ -15318,7 +15405,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" ht="12.75" customHeight="1">
+    <row r="268" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>765</v>
       </c>
@@ -15352,7 +15439,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="12.75" customHeight="1">
+    <row r="269" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>768</v>
       </c>
@@ -15383,7 +15470,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="12.75" customHeight="1">
+    <row r="270" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>771</v>
       </c>
@@ -15417,7 +15504,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" ht="12.75" customHeight="1">
+    <row r="271" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>775</v>
       </c>
@@ -15454,7 +15541,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" ht="12.75" customHeight="1">
+    <row r="272" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>778</v>
       </c>
@@ -15488,7 +15575,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" ht="12.75" customHeight="1">
+    <row r="273" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>781</v>
       </c>
@@ -15525,7 +15612,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" ht="12.75" customHeight="1">
+    <row r="274" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>785</v>
       </c>
@@ -15559,7 +15646,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" ht="12.75" customHeight="1">
+    <row r="275" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>788</v>
       </c>
@@ -15593,7 +15680,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" ht="12.75" customHeight="1">
+    <row r="276" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>792</v>
       </c>
@@ -15621,7 +15708,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" ht="12.75" customHeight="1">
+    <row r="277" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>795</v>
       </c>
@@ -15658,7 +15745,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" ht="12.75" customHeight="1">
+    <row r="278" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>798</v>
       </c>
@@ -15695,7 +15782,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" ht="12.75" customHeight="1">
+    <row r="279" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>800</v>
       </c>
@@ -15732,7 +15819,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" ht="12.75" customHeight="1">
+    <row r="280" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>802</v>
       </c>
@@ -15769,7 +15856,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" ht="12.75" customHeight="1">
+    <row r="281" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>805</v>
       </c>
@@ -15803,7 +15890,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" ht="12.75" customHeight="1">
+    <row r="282" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>808</v>
       </c>
@@ -15834,7 +15921,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" ht="12.75" customHeight="1">
+    <row r="283" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>811</v>
       </c>
@@ -15868,7 +15955,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" ht="12.75" customHeight="1">
+    <row r="284" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>814</v>
       </c>
@@ -15902,7 +15989,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" ht="12.75" customHeight="1">
+    <row r="285" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>816</v>
       </c>
@@ -15936,7 +16023,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" ht="12.75" customHeight="1">
+    <row r="286" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>819</v>
       </c>
@@ -15970,7 +16057,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="12.75" customHeight="1">
+    <row r="287" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>821</v>
       </c>
@@ -16001,7 +16088,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="12.75" customHeight="1">
+    <row r="288" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>824</v>
       </c>
@@ -16035,7 +16122,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" ht="12.75" customHeight="1">
+    <row r="289" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>827</v>
       </c>
@@ -16072,7 +16159,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" ht="12.75" customHeight="1">
+    <row r="290" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>830</v>
       </c>
@@ -16106,7 +16193,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" ht="12.75" customHeight="1">
+    <row r="291" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>832</v>
       </c>
@@ -16143,7 +16230,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" ht="12.75" customHeight="1">
+    <row r="292" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>835</v>
       </c>
@@ -16177,7 +16264,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" ht="12.75" customHeight="1">
+    <row r="293" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>838</v>
       </c>
@@ -16211,7 +16298,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" ht="12.75" customHeight="1">
+    <row r="294" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>841</v>
       </c>
@@ -16242,7 +16329,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" ht="12.75" customHeight="1">
+    <row r="295" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>845</v>
       </c>
@@ -16279,7 +16366,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" ht="12.75" customHeight="1">
+    <row r="296" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>848</v>
       </c>
@@ -16316,7 +16403,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" ht="12.75" customHeight="1">
+    <row r="297" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>851</v>
       </c>
@@ -16353,7 +16440,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" ht="12.75" customHeight="1">
+    <row r="298" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>853</v>
       </c>
@@ -16390,7 +16477,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" ht="12.75" customHeight="1">
+    <row r="299" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>857</v>
       </c>
@@ -16421,7 +16508,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" ht="12.75" customHeight="1">
+    <row r="300" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>860</v>
       </c>
@@ -16455,7 +16542,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" ht="12.75" customHeight="1">
+    <row r="301" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>862</v>
       </c>
@@ -16489,7 +16576,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" ht="12.75" customHeight="1">
+    <row r="302" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>864</v>
       </c>
@@ -16523,7 +16610,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="12.75" customHeight="1">
+    <row r="303" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>867</v>
       </c>
@@ -16554,7 +16641,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="12.75" customHeight="1">
+    <row r="304" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>870</v>
       </c>
@@ -16588,7 +16675,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" ht="12.75" customHeight="1">
+    <row r="305" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>873</v>
       </c>
@@ -16625,7 +16712,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" ht="12.75" customHeight="1">
+    <row r="306" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>876</v>
       </c>
@@ -16659,7 +16746,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" ht="12.75" customHeight="1">
+    <row r="307" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>878</v>
       </c>
@@ -16696,7 +16783,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" ht="12.75" customHeight="1">
+    <row r="308" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>881</v>
       </c>
@@ -16730,7 +16817,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" ht="12.75" customHeight="1">
+    <row r="309" spans="1:27" ht="104" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>884</v>
       </c>
@@ -16764,7 +16851,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" ht="12.75" customHeight="1">
+    <row r="310" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>888</v>
       </c>
@@ -16795,7 +16882,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" ht="12.75" customHeight="1">
+    <row r="311" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>892</v>
       </c>
@@ -16832,7 +16919,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" ht="12.75" customHeight="1">
+    <row r="312" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>895</v>
       </c>
@@ -16869,7 +16956,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" ht="12.75" customHeight="1">
+    <row r="313" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>897</v>
       </c>
@@ -16906,7 +16993,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" ht="12.75" customHeight="1">
+    <row r="314" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>899</v>
       </c>
@@ -16943,7 +17030,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" ht="12.75" customHeight="1">
+    <row r="315" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>901</v>
       </c>
@@ -16974,7 +17061,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" ht="12.75" customHeight="1">
+    <row r="316" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>904</v>
       </c>
@@ -17008,7 +17095,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" ht="12.75" customHeight="1">
+    <row r="317" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>906</v>
       </c>
@@ -17042,7 +17129,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" ht="12.75" customHeight="1">
+    <row r="318" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>908</v>
       </c>
@@ -17076,7 +17163,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="12.75" customHeight="1">
+    <row r="319" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>911</v>
       </c>
@@ -17107,7 +17194,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="12.75" customHeight="1">
+    <row r="320" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>914</v>
       </c>
@@ -17141,7 +17228,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" ht="12.75" customHeight="1">
+    <row r="321" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>917</v>
       </c>
@@ -17178,7 +17265,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" ht="12.75" customHeight="1">
+    <row r="322" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>920</v>
       </c>
@@ -17212,7 +17299,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" ht="12.75" customHeight="1">
+    <row r="323" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>922</v>
       </c>
@@ -17249,7 +17336,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" ht="12.75" customHeight="1">
+    <row r="324" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>925</v>
       </c>
@@ -17283,7 +17370,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" ht="12.75" customHeight="1">
+    <row r="325" spans="1:27" ht="104" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>928</v>
       </c>
@@ -17317,7 +17404,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" ht="12.75" customHeight="1">
+    <row r="326" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>932</v>
       </c>
@@ -17348,7 +17435,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" ht="12.75" customHeight="1">
+    <row r="327" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>936</v>
       </c>
@@ -17385,7 +17472,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" ht="12.75" customHeight="1">
+    <row r="328" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>939</v>
       </c>
@@ -17422,7 +17509,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" ht="12.75" customHeight="1">
+    <row r="329" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>941</v>
       </c>
@@ -17459,7 +17546,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" ht="12.75" customHeight="1">
+    <row r="330" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>943</v>
       </c>
@@ -17496,7 +17583,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" ht="12.75" customHeight="1">
+    <row r="331" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>946</v>
       </c>
@@ -17527,7 +17614,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" ht="12.75" customHeight="1">
+    <row r="332" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>949</v>
       </c>
@@ -17561,7 +17648,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" ht="12.75" customHeight="1">
+    <row r="333" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>951</v>
       </c>
@@ -17595,7 +17682,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" ht="12.75" customHeight="1">
+    <row r="334" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>953</v>
       </c>
@@ -17629,7 +17716,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="12.75" customHeight="1">
+    <row r="335" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>956</v>
       </c>
@@ -17660,7 +17747,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="12.75" customHeight="1">
+    <row r="336" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>959</v>
       </c>
@@ -17694,7 +17781,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" ht="12.75" customHeight="1">
+    <row r="337" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>962</v>
       </c>
@@ -17731,7 +17818,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" ht="12.75" customHeight="1">
+    <row r="338" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>965</v>
       </c>
@@ -17765,7 +17852,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" ht="12.75" customHeight="1">
+    <row r="339" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>967</v>
       </c>
@@ -17802,7 +17889,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" ht="12.75" customHeight="1">
+    <row r="340" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>970</v>
       </c>
@@ -17836,7 +17923,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" ht="12.75" customHeight="1">
+    <row r="341" spans="1:27" ht="104" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>973</v>
       </c>
@@ -17870,7 +17957,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" ht="12.75" customHeight="1">
+    <row r="342" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>977</v>
       </c>
@@ -17901,7 +17988,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" ht="12.75" customHeight="1">
+    <row r="343" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>981</v>
       </c>
@@ -17938,7 +18025,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" ht="12.75" customHeight="1">
+    <row r="344" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>984</v>
       </c>
@@ -17975,7 +18062,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" ht="12.75" customHeight="1">
+    <row r="345" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>986</v>
       </c>
@@ -18012,7 +18099,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
     </row>
-    <row r="346" spans="1:27" ht="12.75" customHeight="1">
+    <row r="346" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>988</v>
       </c>
@@ -18049,7 +18136,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" ht="12.75" customHeight="1">
+    <row r="347" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>990</v>
       </c>
@@ -18080,7 +18167,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" ht="12.75" customHeight="1">
+    <row r="348" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>993</v>
       </c>
@@ -18114,7 +18201,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" ht="12.75" customHeight="1">
+    <row r="349" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>995</v>
       </c>
@@ -18148,7 +18235,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" ht="12.75" customHeight="1">
+    <row r="350" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>997</v>
       </c>
@@ -18182,7 +18269,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="12.75" customHeight="1">
+    <row r="351" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1000</v>
       </c>
@@ -18213,7 +18300,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="12.75" customHeight="1">
+    <row r="352" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1003</v>
       </c>
@@ -18247,7 +18334,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" ht="12.75" customHeight="1">
+    <row r="353" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1006</v>
       </c>
@@ -18284,7 +18371,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" ht="12.75" customHeight="1">
+    <row r="354" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1009</v>
       </c>
@@ -18318,7 +18405,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" ht="12.75" customHeight="1">
+    <row r="355" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>1011</v>
       </c>
@@ -18355,7 +18442,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" ht="12.75" customHeight="1">
+    <row r="356" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>1014</v>
       </c>
@@ -18389,7 +18476,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" ht="12.75" customHeight="1">
+    <row r="357" spans="1:27" ht="104" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>1017</v>
       </c>
@@ -18423,7 +18510,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" ht="12.75" customHeight="1">
+    <row r="358" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>1021</v>
       </c>
@@ -18454,7 +18541,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" ht="12.75" customHeight="1">
+    <row r="359" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>1024</v>
       </c>
@@ -18491,7 +18578,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="12.75" customHeight="1">
+    <row r="360" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1027</v>
       </c>
@@ -18525,7 +18612,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" ht="12.75" customHeight="1">
+    <row r="361" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>1030</v>
       </c>
@@ -18562,7 +18649,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="12.75" customHeight="1">
+    <row r="362" spans="1:27" ht="286" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
@@ -18599,7 +18686,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" ht="12.75" customHeight="1">
+    <row r="363" spans="1:27" ht="91" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>1038</v>
       </c>
@@ -18636,7 +18723,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
     </row>
-    <row r="364" spans="1:27" ht="12.75" customHeight="1">
+    <row r="364" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>1042</v>
       </c>
@@ -18670,7 +18757,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" ht="12.75" customHeight="1">
+    <row r="365" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>1045</v>
       </c>
@@ -18707,7 +18794,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" ht="12.75" customHeight="1">
+    <row r="366" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>1048</v>
       </c>
@@ -18741,7 +18828,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" ht="12.75" customHeight="1">
+    <row r="367" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>1050</v>
       </c>
@@ -18778,7 +18865,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" ht="12.75" customHeight="1">
+    <row r="368" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>1054</v>
       </c>
@@ -18812,7 +18899,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" ht="12.75" customHeight="1">
+    <row r="369" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>1056</v>
       </c>
@@ -18846,7 +18933,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" ht="12.75" customHeight="1">
+    <row r="370" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>1058</v>
       </c>
@@ -18880,7 +18967,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" ht="12.75" customHeight="1">
+    <row r="371" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>1060</v>
       </c>
@@ -18914,7 +19001,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="12.75" customHeight="1">
+    <row r="372" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1062</v>
       </c>
@@ -18948,7 +19035,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" ht="12.75" customHeight="1">
+    <row r="373" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>1064</v>
       </c>
@@ -18979,7 +19066,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" ht="12.75" customHeight="1">
+    <row r="374" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>1067</v>
       </c>
@@ -19016,7 +19103,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" ht="12.75" customHeight="1">
+    <row r="375" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>1071</v>
       </c>
@@ -19050,7 +19137,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" ht="12.75" customHeight="1">
+    <row r="376" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>1073</v>
       </c>
@@ -19084,7 +19171,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="12.75" customHeight="1">
+    <row r="377" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1076</v>
       </c>
@@ -19118,7 +19205,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" ht="12.75" customHeight="1">
+    <row r="378" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>1078</v>
       </c>
@@ -19152,7 +19239,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="12.75" customHeight="1">
+    <row r="379" spans="1:27" ht="104" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1080</v>
       </c>
@@ -19189,7 +19276,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" ht="12.75" customHeight="1">
+    <row r="380" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>1085</v>
       </c>
@@ -19226,7 +19313,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" ht="12.75" customHeight="1">
+    <row r="381" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>1088</v>
       </c>
@@ -19257,7 +19344,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" ht="12.75" customHeight="1">
+    <row r="382" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>1091</v>
       </c>
@@ -19291,7 +19378,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" ht="12.75" customHeight="1">
+    <row r="383" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>1094</v>
       </c>
@@ -19328,7 +19415,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" ht="12.75" customHeight="1">
+    <row r="384" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>1097</v>
       </c>
@@ -19365,7 +19452,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="12.75" customHeight="1">
+    <row r="385" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1100</v>
       </c>
@@ -19399,7 +19486,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" ht="12.75" customHeight="1">
+    <row r="386" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>1102</v>
       </c>
@@ -19436,7 +19523,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" ht="12.75" customHeight="1">
+    <row r="387" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>1105</v>
       </c>
@@ -19470,7 +19557,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" ht="12.75" customHeight="1">
+    <row r="388" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>1107</v>
       </c>
@@ -19504,7 +19591,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" ht="12.75" customHeight="1">
+    <row r="389" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>1109</v>
       </c>
@@ -19535,7 +19622,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" ht="12.75" customHeight="1">
+    <row r="390" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>1112</v>
       </c>
@@ -19572,7 +19659,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" ht="12.75" customHeight="1">
+    <row r="391" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>1115</v>
       </c>
@@ -19606,7 +19693,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" ht="12.75" customHeight="1">
+    <row r="392" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>1118</v>
       </c>
@@ -19643,7 +19730,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" ht="12.75" customHeight="1">
+    <row r="393" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>1121</v>
       </c>
@@ -19671,7 +19758,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" ht="12.75" customHeight="1">
+    <row r="394" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>1123</v>
       </c>
@@ -19705,7 +19792,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
     </row>
-    <row r="395" spans="1:27" ht="12.75" customHeight="1">
+    <row r="395" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>1125</v>
       </c>
@@ -19733,7 +19820,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" ht="12.75" customHeight="1">
+    <row r="396" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>1127</v>
       </c>
@@ -19764,7 +19851,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" ht="12.75" customHeight="1">
+    <row r="397" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>1129</v>
       </c>
@@ -19801,7 +19888,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" ht="12.75" customHeight="1">
+    <row r="398" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>1132</v>
       </c>
@@ -19829,7 +19916,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" ht="12.75" customHeight="1">
+    <row r="399" spans="1:27" ht="91" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>1134</v>
       </c>
@@ -19860,7 +19947,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" ht="12.75" customHeight="1">
+    <row r="400" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>1137</v>
       </c>
@@ -19897,7 +19984,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="12.75" customHeight="1">
+    <row r="401" spans="1:27" ht="182" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1140</v>
       </c>
@@ -19931,7 +20018,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" ht="12.75" customHeight="1">
+    <row r="402" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>1142</v>
       </c>
@@ -19968,7 +20055,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" ht="12.75" customHeight="1">
+    <row r="403" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>1144</v>
       </c>
@@ -20002,7 +20089,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" ht="12.75" customHeight="1">
+    <row r="404" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>1146</v>
       </c>
@@ -20033,7 +20120,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" ht="12.75" customHeight="1">
+    <row r="405" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>1150</v>
       </c>
@@ -20064,7 +20151,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" ht="12.75" customHeight="1">
+    <row r="406" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>1153</v>
       </c>
@@ -20092,7 +20179,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" ht="12.75" customHeight="1">
+    <row r="407" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>1156</v>
       </c>
@@ -20120,7 +20207,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" ht="12.75" customHeight="1">
+    <row r="408" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>1159</v>
       </c>
@@ -20154,7 +20241,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" ht="12.75" customHeight="1">
+    <row r="409" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>1163</v>
       </c>
@@ -20182,7 +20269,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" ht="12.75" customHeight="1">
+    <row r="410" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>1166</v>
       </c>
@@ -20210,7 +20297,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" ht="12.75" customHeight="1">
+    <row r="411" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>1167</v>
       </c>
@@ -20241,7 +20328,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" ht="12.75" customHeight="1">
+    <row r="412" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>1170</v>
       </c>
@@ -20269,7 +20356,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" ht="12.75" customHeight="1">
+    <row r="413" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>1172</v>
       </c>
@@ -20303,7 +20390,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="12.75" customHeight="1">
+    <row r="414" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1174</v>
       </c>
@@ -20334,7 +20421,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" ht="12.75" customHeight="1">
+    <row r="415" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>1177</v>
       </c>
@@ -20362,7 +20449,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" ht="12.75" customHeight="1">
+    <row r="416" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>1181</v>
       </c>
@@ -20393,7 +20480,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" ht="12.75" customHeight="1">
+    <row r="417" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>1184</v>
       </c>
@@ -20424,7 +20511,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" ht="12.75" customHeight="1">
+    <row r="418" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>1186</v>
       </c>
@@ -20452,7 +20539,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" ht="12.75" customHeight="1">
+    <row r="419" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>1190</v>
       </c>
@@ -20480,7 +20567,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" ht="12.75" customHeight="1">
+    <row r="420" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>1192</v>
       </c>
@@ -20508,7 +20595,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" ht="12.75" customHeight="1">
+    <row r="421" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>1194</v>
       </c>
@@ -20536,7 +20623,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" ht="12.75" customHeight="1">
+    <row r="422" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>1196</v>
       </c>
@@ -20567,7 +20654,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" ht="12.75" customHeight="1">
+    <row r="423" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>1200</v>
       </c>
@@ -20595,7 +20682,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" ht="12.75" customHeight="1">
+    <row r="424" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>1203</v>
       </c>
@@ -20626,7 +20713,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
     </row>
-    <row r="425" spans="1:27" ht="12.75" customHeight="1">
+    <row r="425" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>1205</v>
       </c>
@@ -20654,7 +20741,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
     </row>
-    <row r="426" spans="1:27" ht="12.75" customHeight="1">
+    <row r="426" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>1207</v>
       </c>
@@ -20685,7 +20772,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
     </row>
-    <row r="427" spans="1:27" ht="12.75" customHeight="1">
+    <row r="427" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1210</v>
       </c>
@@ -20716,7 +20803,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
     </row>
-    <row r="428" spans="1:27" ht="12.75" customHeight="1">
+    <row r="428" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1214</v>
       </c>
@@ -20744,7 +20831,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
     </row>
-    <row r="429" spans="1:27" ht="12.75" customHeight="1">
+    <row r="429" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1216</v>
       </c>
@@ -20772,7 +20859,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" ht="12.75" customHeight="1">
+    <row r="430" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1218</v>
       </c>
@@ -20800,7 +20887,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
     </row>
-    <row r="431" spans="1:27" ht="12.75" customHeight="1">
+    <row r="431" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1220</v>
       </c>
@@ -20828,7 +20915,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
     </row>
-    <row r="432" spans="1:27" ht="12.75" customHeight="1">
+    <row r="432" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1222</v>
       </c>
@@ -20853,7 +20940,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
     </row>
-    <row r="433" spans="1:27" ht="12.75" customHeight="1">
+    <row r="433" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1224</v>
       </c>
@@ -20878,7 +20965,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
     </row>
-    <row r="434" spans="1:27" ht="12.75" customHeight="1">
+    <row r="434" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1226</v>
       </c>
@@ -20909,7 +20996,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" ht="12.75" customHeight="1">
+    <row r="435" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1229</v>
       </c>
@@ -20940,7 +21027,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" ht="12.75" customHeight="1">
+    <row r="436" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1232</v>
       </c>
@@ -20971,7 +21058,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" ht="12.75" customHeight="1">
+    <row r="437" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1235</v>
       </c>
@@ -21002,7 +21089,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" ht="12.75" customHeight="1">
+    <row r="438" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1237</v>
       </c>
@@ -21033,7 +21120,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" ht="12.75" customHeight="1">
+    <row r="439" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1239</v>
       </c>
@@ -21064,7 +21151,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" ht="12.75" customHeight="1">
+    <row r="440" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1241</v>
       </c>
@@ -21095,7 +21182,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" ht="12.75" customHeight="1">
+    <row r="441" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1244</v>
       </c>
@@ -21123,7 +21210,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" ht="12.75" customHeight="1">
+    <row r="442" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>1246</v>
       </c>
@@ -21154,7 +21241,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" ht="12.75" customHeight="1">
+    <row r="443" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>1248</v>
       </c>
@@ -21185,7 +21272,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" ht="12.75" customHeight="1">
+    <row r="444" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>1250</v>
       </c>
@@ -21216,7 +21303,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
     </row>
-    <row r="445" spans="1:27" ht="12.75" customHeight="1">
+    <row r="445" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>1252</v>
       </c>
@@ -21247,7 +21334,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
     </row>
-    <row r="446" spans="1:27" ht="12.75" customHeight="1">
+    <row r="446" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>1254</v>
       </c>
@@ -21275,7 +21362,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
     </row>
-    <row r="447" spans="1:27" ht="12.75" customHeight="1">
+    <row r="447" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>1256</v>
       </c>
@@ -21303,7 +21390,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
     </row>
-    <row r="448" spans="1:27" ht="12.75" customHeight="1">
+    <row r="448" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>1258</v>
       </c>
@@ -21328,7 +21415,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
     </row>
-    <row r="449" spans="1:27" ht="12.75" customHeight="1">
+    <row r="449" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>1260</v>
       </c>
@@ -21353,7 +21440,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
     </row>
-    <row r="450" spans="1:27" ht="12.75" customHeight="1">
+    <row r="450" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>1262</v>
       </c>
@@ -21378,7 +21465,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
     </row>
-    <row r="451" spans="1:27" ht="12.75" customHeight="1">
+    <row r="451" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>1264</v>
       </c>
@@ -21406,7 +21493,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
     </row>
-    <row r="452" spans="1:27" ht="12.75" customHeight="1">
+    <row r="452" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>1267</v>
       </c>
@@ -21431,7 +21518,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
     </row>
-    <row r="453" spans="1:27" ht="12.75" customHeight="1">
+    <row r="453" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>1269</v>
       </c>
@@ -21459,7 +21546,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
     </row>
-    <row r="454" spans="1:27" ht="12.75" customHeight="1">
+    <row r="454" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>1272</v>
       </c>
@@ -21487,7 +21574,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
     </row>
-    <row r="455" spans="1:27" ht="12.75" customHeight="1">
+    <row r="455" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>1273</v>
       </c>
@@ -21515,7 +21602,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
     </row>
-    <row r="456" spans="1:27" ht="12.75" customHeight="1">
+    <row r="456" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>1274</v>
       </c>
@@ -21543,7 +21630,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
     </row>
-    <row r="457" spans="1:27" ht="12.75" customHeight="1">
+    <row r="457" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>1276</v>
       </c>
@@ -21571,7 +21658,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
     </row>
-    <row r="458" spans="1:27" ht="12.75" customHeight="1">
+    <row r="458" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>1279</v>
       </c>
@@ -21599,7 +21686,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
     </row>
-    <row r="459" spans="1:27" ht="12.75" customHeight="1">
+    <row r="459" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>1281</v>
       </c>
@@ -21627,7 +21714,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
     </row>
-    <row r="460" spans="1:27" ht="12.75" customHeight="1">
+    <row r="460" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>1283</v>
       </c>
@@ -21658,7 +21745,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
     </row>
-    <row r="461" spans="1:27" ht="12.75" customHeight="1">
+    <row r="461" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>1286</v>
       </c>
@@ -21689,7 +21776,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
     </row>
-    <row r="462" spans="1:27" ht="12.75" customHeight="1">
+    <row r="462" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>1288</v>
       </c>
@@ -21717,7 +21804,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
     </row>
-    <row r="463" spans="1:27" ht="12.75" customHeight="1">
+    <row r="463" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>1290</v>
       </c>
@@ -21745,7 +21832,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
     </row>
-    <row r="464" spans="1:27" ht="12.75" customHeight="1">
+    <row r="464" spans="1:27" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>1292</v>
       </c>
@@ -21775,10 +21862,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/labs/clinical-data-dictonary.xlsx
+++ b/labs/clinical-data-dictonary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrejack/code/hcv-target-sites/labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UFBuck72/TEMP/UF/target_2_0/research_missing_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{639058BB-06DD-6E48-888F-152C5C799F3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="4320" windowWidth="25600" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDictionaryforREDI" sheetId="1" r:id="rId1"/>
     <sheet name="modifiedREDCapDictionary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4107,7 +4108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4145,7 +4146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4176,6 +4177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4201,7 +4208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4221,6 +4228,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4244,6 +4254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4570,16 +4583,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
@@ -6257,47 +6271,47 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="40" spans="1:14" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="G40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -6473,7 +6487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6775,7 +6789,7 @@
         <v>184100006</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="91" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" ht="104" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6812,7 +6826,7 @@
         <v>103579009</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" ht="52" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7353,7 +7367,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="78" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="91" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7387,7 +7401,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -8667,7 +8681,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -9238,7 +9252,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" ht="39" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -9520,7 +9534,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" ht="409" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>271</v>
       </c>
@@ -9734,7 +9748,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" ht="409" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>287</v>
       </c>
@@ -9799,7 +9813,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -9827,7 +9841,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -9855,7 +9869,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>300</v>
       </c>
@@ -9886,7 +9900,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>302</v>
       </c>
@@ -9920,7 +9934,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>305</v>
       </c>
@@ -9948,7 +9962,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>307</v>
       </c>
@@ -9976,7 +9990,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -10007,7 +10021,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -10044,7 +10058,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -10078,7 +10092,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -10146,7 +10160,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -10174,7 +10188,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>326</v>
       </c>
@@ -10202,7 +10216,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>328</v>
       </c>
@@ -10233,7 +10247,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>330</v>
       </c>
@@ -10295,7 +10309,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" ht="39" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>336</v>
       </c>
@@ -10965,7 +10979,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>385</v>
       </c>
@@ -11064,7 +11078,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" ht="39" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>394</v>
       </c>
@@ -15089,7 +15103,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" ht="52" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:27" ht="65" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>735</v>
       </c>
@@ -15439,7 +15453,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>768</v>
       </c>
@@ -15470,7 +15484,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>771</v>
       </c>
@@ -16057,7 +16071,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>821</v>
       </c>
@@ -16088,7 +16102,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>824</v>
       </c>
@@ -16610,7 +16624,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>867</v>
       </c>
@@ -16641,7 +16655,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>870</v>
       </c>
@@ -17163,7 +17177,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>911</v>
       </c>
@@ -17194,7 +17208,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>914</v>
       </c>
@@ -17716,7 +17730,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>956</v>
       </c>
@@ -17747,7 +17761,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>959</v>
       </c>
@@ -18269,7 +18283,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:27" ht="39" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1000</v>
       </c>
@@ -18300,7 +18314,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1003</v>
       </c>
@@ -18578,7 +18592,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1027</v>
       </c>
@@ -18649,7 +18663,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" ht="286" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:27" ht="312" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
@@ -19001,7 +19015,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1062</v>
       </c>
@@ -19171,7 +19185,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" ht="39" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:27" ht="52" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1076</v>
       </c>
@@ -19239,7 +19253,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" ht="104" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:27" ht="117" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1080</v>
       </c>
@@ -19452,7 +19466,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1100</v>
       </c>
@@ -19984,7 +19998,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" ht="182" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:27" ht="195" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1140</v>
       </c>
@@ -20390,7 +20404,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1174</v>
       </c>
